--- a/src/test/java/com/ptpl/testdata/ImageHescomsample50.xlsx
+++ b/src/test/java/com/ptpl/testdata/ImageHescomsample50.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10671" uniqueCount="2461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10680" uniqueCount="2461">
   <si>
     <t xml:space="preserve">Zone</t>
   </si>
@@ -7514,10 +7514,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1191"/>
+  <dimension ref="A1:K1192"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1178" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1196" activeCellId="0" sqref="E1196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -45662,6 +45662,38 @@
         <v>2460</v>
       </c>
     </row>
+    <row r="1192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1192" s="0" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B1192" s="0" t="s">
+        <v>2238</v>
+      </c>
+      <c r="C1192" s="0" t="s">
+        <v>2238</v>
+      </c>
+      <c r="D1192" s="0" t="s">
+        <v>2238</v>
+      </c>
+      <c r="E1192" s="0" t="s">
+        <v>2357</v>
+      </c>
+      <c r="F1192" s="0" t="s">
+        <v>2411</v>
+      </c>
+      <c r="G1192" s="0" t="s">
+        <v>2412</v>
+      </c>
+      <c r="H1192" s="0" t="s">
+        <v>2459</v>
+      </c>
+      <c r="I1192" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="J1192" s="0" t="s">
+        <v>2460</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
